--- a/batting_ohtani.xlsx
+++ b/batting_ohtani.xlsx
@@ -586,27 +586,27 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Pos</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Awards</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>SF</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>IBB</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Pos</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Awards</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
         </is>
       </c>
     </row>
@@ -708,23 +708,23 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>*D</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>AS</t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AI2" t="n">
         <v>5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>*D</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>AS</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="3">
@@ -825,23 +825,23 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>*D1</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>AS,MVP-1,SS</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AI3" t="n">
         <v>3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>*D1</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>AS,MVP-1,SS</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="4">
@@ -942,23 +942,23 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>*D1/H97</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>AS,MVP-1,SS</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AI4" t="n">
         <v>2</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>*D1/H97</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>AS,MVP-1,SS</t>
-        </is>
-      </c>
-      <c r="AI4" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="5">
@@ -1112,26 +1112,26 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>*D1/H</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>AS,CYA-4,MVP-2</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>*D1/H</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>AS,CYA-4,MVP-2</t>
-        </is>
-      </c>
-      <c r="AI5" t="n">
-        <v>2018</v>
       </c>
     </row>
     <row r="6">
@@ -1285,26 +1285,26 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>*D1/H</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>AS,CYA-4,MVP-2</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>*D1/H</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>AS,CYA-4,MVP-2</t>
-        </is>
-      </c>
-      <c r="AI6" t="n">
-        <v>2022</v>
       </c>
     </row>
   </sheetData>
